--- a/biology/Médecine/Aponévrose/Aponévrose.xlsx
+++ b/biology/Médecine/Aponévrose/Aponévrose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apon%C3%A9vrose</t>
+          <t>Aponévrose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une aponévrose (du grec ἀπονεύρωσις, [aponeúrôsis], aponévrose, durcissement sous forme de tendon de l'extrémité d'un muscle), ou aponévrose d'insertion, est un large feuillet de tissu fibreux qui relie un muscle à son point d'attache (sorte de tendon aplati)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une aponévrose (du grec ἀπονεύρωσις, [aponeúrôsis], aponévrose, durcissement sous forme de tendon de l'extrémité d'un muscle), ou aponévrose d'insertion, est un large feuillet de tissu fibreux qui relie un muscle à son point d'attache (sorte de tendon aplati).
 Une aponévrose de revêtement est une membrane fibreuse enveloppant une loge musculaire ou un muscle. C'est un des différents types de fascia.
 Les aponévroses servent aussi à délimiter des compartiments (ou « loges ») dans l'organisme (on parle alors en général de septum).
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apon%C3%A9vrose</t>
+          <t>Aponévrose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Aponévroses d'insertion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les aponévroses d’insertion entourent les muscles, leur permettant ainsi de s’insérer[Comment ?] sur les os. Les aponévroses recouvrant les muscles de la paroi abdominale font partie de cette variété d’aponévroses musculaires.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Apon%C3%A9vrose</t>
+          <t>Aponévrose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Aponévroses d’intersection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parfois, plusieurs aponévroses peuvent se rejoindre pour donner une membrane épaisse et beaucoup plus solide appelée « aponévrose d’intersection ». Ainsi, la ligne médiane de la paroi abdominale, qui regroupe les aponévroses des muscles grands droits de l’abdomen se rejoignent au milieu pour donner la ligne blanche, qui est une aponévrose d’intersection. Autre exemple : les aponévroses superficielle et moyenne du cou (ou lames superficielle et prétrachéale) 
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Apon%C3%A9vrose</t>
+          <t>Aponévrose</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On parle de « septum » lorsque l'aponévrose ou le fascia délimitent des loges (ex. : dans le bras, les septa intermusculaires latéral et médial délimitent les loges musculaires antérieure et postérieure).
 Les termes « aponévrose » et « fascia » sont en général utilisés indifféremment l'un de l'autre, bien qu'il y ait certaines préférences pour certaines structures.
